--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.83231666666667</v>
+        <v>10.33497033333333</v>
       </c>
       <c r="H2">
-        <v>56.49695</v>
+        <v>31.004911</v>
       </c>
       <c r="I2">
-        <v>0.9386336222326693</v>
+        <v>0.9197238512681384</v>
       </c>
       <c r="J2">
-        <v>0.9386336222326694</v>
+        <v>0.9197238512681384</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>70.24576333333333</v>
+        <v>36.27867833333334</v>
       </c>
       <c r="N2">
-        <v>210.73729</v>
+        <v>108.836035</v>
       </c>
       <c r="O2">
-        <v>0.8038202726758663</v>
+        <v>0.6141201546381995</v>
       </c>
       <c r="P2">
-        <v>0.8038202726758663</v>
+        <v>0.6141201546381995</v>
       </c>
       <c r="Q2">
-        <v>1322.890459585056</v>
+        <v>374.9390643075428</v>
       </c>
       <c r="R2">
-        <v>11906.0141362655</v>
+        <v>3374.451578767885</v>
       </c>
       <c r="S2">
-        <v>0.7544927341658003</v>
+        <v>0.5648209537652296</v>
       </c>
       <c r="T2">
-        <v>0.7544927341658004</v>
+        <v>0.5648209537652296</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.83231666666667</v>
+        <v>10.33497033333333</v>
       </c>
       <c r="H3">
-        <v>56.49695</v>
+        <v>31.004911</v>
       </c>
       <c r="I3">
-        <v>0.9386336222326693</v>
+        <v>0.9197238512681384</v>
       </c>
       <c r="J3">
-        <v>0.9386336222326694</v>
+        <v>0.9197238512681384</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.457167</v>
       </c>
       <c r="O3">
-        <v>0.001743782994449667</v>
+        <v>0.002579618678092064</v>
       </c>
       <c r="P3">
-        <v>0.001743782994449667</v>
+        <v>0.002579618678092065</v>
       </c>
       <c r="Q3">
-        <v>2.869837904516667</v>
+        <v>1.574935794126333</v>
       </c>
       <c r="R3">
-        <v>25.82854114065</v>
+        <v>14.174422147137</v>
       </c>
       <c r="S3">
-        <v>0.001636773348468021</v>
+        <v>0.002372536825418057</v>
       </c>
       <c r="T3">
-        <v>0.001636773348468022</v>
+        <v>0.002372536825418058</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.83231666666667</v>
+        <v>10.33497033333333</v>
       </c>
       <c r="H4">
-        <v>56.49695</v>
+        <v>31.004911</v>
       </c>
       <c r="I4">
-        <v>0.9386336222326693</v>
+        <v>0.9197238512681384</v>
       </c>
       <c r="J4">
-        <v>0.9386336222326694</v>
+        <v>0.9197238512681384</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.90423533333333</v>
+        <v>20.63960233333333</v>
       </c>
       <c r="N4">
-        <v>41.712706</v>
+        <v>61.918807</v>
       </c>
       <c r="O4">
-        <v>0.1591057696099644</v>
+        <v>0.3493841660976791</v>
       </c>
       <c r="P4">
-        <v>0.1591057696099644</v>
+        <v>0.3493841660976791</v>
       </c>
       <c r="Q4">
-        <v>261.8489628051889</v>
+        <v>213.3096778067974</v>
       </c>
       <c r="R4">
-        <v>2356.6406652467</v>
+        <v>1919.787100261177</v>
       </c>
       <c r="S4">
-        <v>0.1493420248471174</v>
+        <v>0.3213369508154644</v>
       </c>
       <c r="T4">
-        <v>0.1493420248471174</v>
+        <v>0.3213369508154644</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.83231666666667</v>
+        <v>10.33497033333333</v>
       </c>
       <c r="H5">
-        <v>56.49695</v>
+        <v>31.004911</v>
       </c>
       <c r="I5">
-        <v>0.9386336222326693</v>
+        <v>0.9197238512681384</v>
       </c>
       <c r="J5">
-        <v>0.9386336222326694</v>
+        <v>0.9197238512681384</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.0875</v>
+        <v>2.003565333333333</v>
       </c>
       <c r="N5">
-        <v>9.262499999999999</v>
+        <v>6.010696</v>
       </c>
       <c r="O5">
-        <v>0.03533017471971957</v>
+        <v>0.03391606058602931</v>
       </c>
       <c r="P5">
-        <v>0.03533017471971957</v>
+        <v>0.03391606058602931</v>
       </c>
       <c r="Q5">
-        <v>58.14477770833334</v>
+        <v>20.70678828089511</v>
       </c>
       <c r="R5">
-        <v>523.3029993749999</v>
+        <v>186.361094528056</v>
       </c>
       <c r="S5">
-        <v>0.03316208987128347</v>
+        <v>0.03119340986202639</v>
       </c>
       <c r="T5">
-        <v>0.03316208987128347</v>
+        <v>0.03119340986202639</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5895989999999999</v>
+        <v>0.589599</v>
       </c>
       <c r="H6">
         <v>1.768797</v>
       </c>
       <c r="I6">
-        <v>0.02938658343688073</v>
+        <v>0.05246926169056023</v>
       </c>
       <c r="J6">
-        <v>0.02938658343688073</v>
+        <v>0.05246926169056022</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>70.24576333333333</v>
+        <v>36.27867833333334</v>
       </c>
       <c r="N6">
-        <v>210.73729</v>
+        <v>108.836035</v>
       </c>
       <c r="O6">
-        <v>0.8038202726758663</v>
+        <v>0.6141201546381995</v>
       </c>
       <c r="P6">
-        <v>0.8038202726758663</v>
+        <v>0.6141201546381995</v>
       </c>
       <c r="Q6">
-        <v>41.41683181556999</v>
+        <v>21.389872466655</v>
       </c>
       <c r="R6">
-        <v>372.7514863401299</v>
+        <v>192.508852199895</v>
       </c>
       <c r="S6">
-        <v>0.02362153151124556</v>
+        <v>0.032222431103159</v>
       </c>
       <c r="T6">
-        <v>0.02362153151124556</v>
+        <v>0.032222431103159</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5895989999999999</v>
+        <v>0.589599</v>
       </c>
       <c r="H7">
         <v>1.768797</v>
       </c>
       <c r="I7">
-        <v>0.02938658343688073</v>
+        <v>0.05246926169056023</v>
       </c>
       <c r="J7">
-        <v>0.02938658343688073</v>
+        <v>0.05246926169056022</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,22 +871,22 @@
         <v>0.457167</v>
       </c>
       <c r="O7">
-        <v>0.001743782994449667</v>
+        <v>0.002579618678092064</v>
       </c>
       <c r="P7">
-        <v>0.001743782994449667</v>
+        <v>0.002579618678092065</v>
       </c>
       <c r="Q7">
-        <v>0.08984840201099997</v>
+        <v>0.089848402011</v>
       </c>
       <c r="R7">
-        <v>0.8086356180989999</v>
+        <v>0.808635618099</v>
       </c>
       <c r="S7">
-        <v>5.124382446220885E-05</v>
+        <v>0.0001353506874826696</v>
       </c>
       <c r="T7">
-        <v>5.124382446220886E-05</v>
+        <v>0.0001353506874826696</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5895989999999999</v>
+        <v>0.589599</v>
       </c>
       <c r="H8">
         <v>1.768797</v>
       </c>
       <c r="I8">
-        <v>0.02938658343688073</v>
+        <v>0.05246926169056023</v>
       </c>
       <c r="J8">
-        <v>0.02938658343688073</v>
+        <v>0.05246926169056022</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.90423533333333</v>
+        <v>20.63960233333333</v>
       </c>
       <c r="N8">
-        <v>41.712706</v>
+        <v>61.918807</v>
       </c>
       <c r="O8">
-        <v>0.1591057696099644</v>
+        <v>0.3493841660976791</v>
       </c>
       <c r="P8">
-        <v>0.1591057696099644</v>
+        <v>0.3493841660976791</v>
       </c>
       <c r="Q8">
-        <v>8.197923248297998</v>
+        <v>12.169088896131</v>
       </c>
       <c r="R8">
-        <v>73.781309234682</v>
+        <v>109.521800065179</v>
       </c>
       <c r="S8">
-        <v>0.004675574973932339</v>
+        <v>0.01833192924151729</v>
       </c>
       <c r="T8">
-        <v>0.00467557497393234</v>
+        <v>0.01833192924151729</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5895989999999999</v>
+        <v>0.589599</v>
       </c>
       <c r="H9">
         <v>1.768797</v>
       </c>
       <c r="I9">
-        <v>0.02938658343688073</v>
+        <v>0.05246926169056023</v>
       </c>
       <c r="J9">
-        <v>0.02938658343688073</v>
+        <v>0.05246926169056022</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.0875</v>
+        <v>2.003565333333333</v>
       </c>
       <c r="N9">
-        <v>9.262499999999999</v>
+        <v>6.010696</v>
       </c>
       <c r="O9">
-        <v>0.03533017471971957</v>
+        <v>0.03391606058602931</v>
       </c>
       <c r="P9">
-        <v>0.03533017471971957</v>
+        <v>0.03391606058602931</v>
       </c>
       <c r="Q9">
-        <v>1.8203869125</v>
+        <v>1.181300116968</v>
       </c>
       <c r="R9">
-        <v>16.3834822125</v>
+        <v>10.631701052712</v>
       </c>
       <c r="S9">
-        <v>0.001038233127240613</v>
+        <v>0.001779550658401267</v>
       </c>
       <c r="T9">
-        <v>0.001038233127240613</v>
+        <v>0.001779550658401267</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.4419256666666666</v>
+        <v>0.216152</v>
       </c>
       <c r="H10">
-        <v>1.325777</v>
+        <v>0.6484559999999999</v>
       </c>
       <c r="I10">
-        <v>0.02202630173456729</v>
+        <v>0.019235676880283</v>
       </c>
       <c r="J10">
-        <v>0.02202630173456729</v>
+        <v>0.01923567688028299</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>70.24576333333333</v>
+        <v>36.27867833333334</v>
       </c>
       <c r="N10">
-        <v>210.73729</v>
+        <v>108.836035</v>
       </c>
       <c r="O10">
-        <v>0.8038202726758663</v>
+        <v>0.6141201546381995</v>
       </c>
       <c r="P10">
-        <v>0.8038202726758663</v>
+        <v>0.6141201546381995</v>
       </c>
       <c r="Q10">
-        <v>31.04340579159222</v>
+        <v>7.841708879106667</v>
       </c>
       <c r="R10">
-        <v>279.39065212433</v>
+        <v>70.57537991196</v>
       </c>
       <c r="S10">
-        <v>0.01770518786632079</v>
+        <v>0.01181301686028983</v>
       </c>
       <c r="T10">
-        <v>0.01770518786632079</v>
+        <v>0.01181301686028983</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.4419256666666666</v>
+        <v>0.216152</v>
       </c>
       <c r="H11">
-        <v>1.325777</v>
+        <v>0.6484559999999999</v>
       </c>
       <c r="I11">
-        <v>0.02202630173456729</v>
+        <v>0.019235676880283</v>
       </c>
       <c r="J11">
-        <v>0.02202630173456729</v>
+        <v>0.01923567688028299</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.457167</v>
       </c>
       <c r="O11">
-        <v>0.001743782994449667</v>
+        <v>0.002579618678092064</v>
       </c>
       <c r="P11">
-        <v>0.001743782994449667</v>
+        <v>0.002579618678092065</v>
       </c>
       <c r="Q11">
-        <v>0.06734461041766665</v>
+        <v>0.03293918712799999</v>
       </c>
       <c r="R11">
-        <v>0.6061014937589999</v>
+        <v>0.2964526841519999</v>
       </c>
       <c r="S11">
-        <v>3.840909039535563E-05</v>
+        <v>4.96207113661217E-05</v>
       </c>
       <c r="T11">
-        <v>3.840909039535564E-05</v>
+        <v>4.96207113661217E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4419256666666666</v>
+        <v>0.216152</v>
       </c>
       <c r="H12">
-        <v>1.325777</v>
+        <v>0.6484559999999999</v>
       </c>
       <c r="I12">
-        <v>0.02202630173456729</v>
+        <v>0.019235676880283</v>
       </c>
       <c r="J12">
-        <v>0.02202630173456729</v>
+        <v>0.01923567688028299</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.90423533333333</v>
+        <v>20.63960233333333</v>
       </c>
       <c r="N12">
-        <v>41.712706</v>
+        <v>61.918807</v>
       </c>
       <c r="O12">
-        <v>0.1591057696099644</v>
+        <v>0.3493841660976791</v>
       </c>
       <c r="P12">
-        <v>0.1591057696099644</v>
+        <v>0.3493841660976791</v>
       </c>
       <c r="Q12">
-        <v>6.144638469173555</v>
+        <v>4.461291323554666</v>
       </c>
       <c r="R12">
-        <v>55.301746222562</v>
+        <v>40.151621911992</v>
       </c>
       <c r="S12">
-        <v>0.003504511689139622</v>
+        <v>0.006720640926142081</v>
       </c>
       <c r="T12">
-        <v>0.003504511689139622</v>
+        <v>0.00672064092614208</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4419256666666666</v>
+        <v>0.216152</v>
       </c>
       <c r="H13">
-        <v>1.325777</v>
+        <v>0.6484559999999999</v>
       </c>
       <c r="I13">
-        <v>0.02202630173456729</v>
+        <v>0.019235676880283</v>
       </c>
       <c r="J13">
-        <v>0.02202630173456729</v>
+        <v>0.01923567688028299</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.0875</v>
+        <v>2.003565333333333</v>
       </c>
       <c r="N13">
-        <v>9.262499999999999</v>
+        <v>6.010696</v>
       </c>
       <c r="O13">
-        <v>0.03533017471971957</v>
+        <v>0.03391606058602931</v>
       </c>
       <c r="P13">
-        <v>0.03533017471971957</v>
+        <v>0.03391606058602931</v>
       </c>
       <c r="Q13">
-        <v>1.364445495833333</v>
+        <v>0.4330746539306666</v>
       </c>
       <c r="R13">
-        <v>12.2800094625</v>
+        <v>3.897671885376</v>
       </c>
       <c r="S13">
-        <v>0.0007781930887115247</v>
+        <v>0.0006523983824849612</v>
       </c>
       <c r="T13">
-        <v>0.0007781930887115247</v>
+        <v>0.0006523983824849613</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1997023333333333</v>
+        <v>0.096315</v>
       </c>
       <c r="H14">
-        <v>0.5991069999999999</v>
+        <v>0.288945</v>
       </c>
       <c r="I14">
-        <v>0.00995349259588257</v>
+        <v>0.008571210161018436</v>
       </c>
       <c r="J14">
-        <v>0.009953492595882572</v>
+        <v>0.008571210161018434</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>70.24576333333333</v>
+        <v>36.27867833333334</v>
       </c>
       <c r="N14">
-        <v>210.73729</v>
+        <v>108.836035</v>
       </c>
       <c r="O14">
-        <v>0.8038202726758663</v>
+        <v>0.6141201546381995</v>
       </c>
       <c r="P14">
-        <v>0.8038202726758663</v>
+        <v>0.6141201546381995</v>
       </c>
       <c r="Q14">
-        <v>14.02824284444778</v>
+        <v>3.494180903675001</v>
       </c>
       <c r="R14">
-        <v>126.25418560003</v>
+        <v>31.447628133075</v>
       </c>
       <c r="S14">
-        <v>0.008000819132499544</v>
+        <v>0.005263752909521149</v>
       </c>
       <c r="T14">
-        <v>0.008000819132499545</v>
+        <v>0.005263752909521147</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1997023333333333</v>
+        <v>0.096315</v>
       </c>
       <c r="H15">
-        <v>0.5991069999999999</v>
+        <v>0.288945</v>
       </c>
       <c r="I15">
-        <v>0.00995349259588257</v>
+        <v>0.008571210161018436</v>
       </c>
       <c r="J15">
-        <v>0.009953492595882572</v>
+        <v>0.008571210161018434</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.457167</v>
       </c>
       <c r="O15">
-        <v>0.001743782994449667</v>
+        <v>0.002579618678092064</v>
       </c>
       <c r="P15">
-        <v>0.001743782994449667</v>
+        <v>0.002579618678092065</v>
       </c>
       <c r="Q15">
-        <v>0.03043243887433333</v>
+        <v>0.014677346535</v>
       </c>
       <c r="R15">
-        <v>0.273891949869</v>
+        <v>0.132096118815</v>
       </c>
       <c r="S15">
-        <v>1.73567311240807E-05</v>
+        <v>2.211045382521565E-05</v>
       </c>
       <c r="T15">
-        <v>1.73567311240807E-05</v>
+        <v>2.211045382521565E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1997023333333333</v>
+        <v>0.096315</v>
       </c>
       <c r="H16">
-        <v>0.5991069999999999</v>
+        <v>0.288945</v>
       </c>
       <c r="I16">
-        <v>0.00995349259588257</v>
+        <v>0.008571210161018436</v>
       </c>
       <c r="J16">
-        <v>0.009953492595882572</v>
+        <v>0.008571210161018434</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.90423533333333</v>
+        <v>20.63960233333333</v>
       </c>
       <c r="N16">
-        <v>41.712706</v>
+        <v>61.918807</v>
       </c>
       <c r="O16">
-        <v>0.1591057696099644</v>
+        <v>0.3493841660976791</v>
       </c>
       <c r="P16">
-        <v>0.1591057696099644</v>
+        <v>0.3493841660976791</v>
       </c>
       <c r="Q16">
-        <v>2.776708239282444</v>
+        <v>1.987903298735</v>
       </c>
       <c r="R16">
-        <v>24.990374153542</v>
+        <v>17.891129688615</v>
       </c>
       <c r="S16">
-        <v>0.001583658099774978</v>
+        <v>0.00299464511455538</v>
       </c>
       <c r="T16">
-        <v>0.001583658099774979</v>
+        <v>0.00299464511455538</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1997023333333333</v>
+        <v>0.096315</v>
       </c>
       <c r="H17">
-        <v>0.5991069999999999</v>
+        <v>0.288945</v>
       </c>
       <c r="I17">
-        <v>0.00995349259588257</v>
+        <v>0.008571210161018436</v>
       </c>
       <c r="J17">
-        <v>0.009953492595882572</v>
+        <v>0.008571210161018434</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.0875</v>
+        <v>2.003565333333333</v>
       </c>
       <c r="N17">
-        <v>9.262499999999999</v>
+        <v>6.010696</v>
       </c>
       <c r="O17">
-        <v>0.03533017471971957</v>
+        <v>0.03391606058602931</v>
       </c>
       <c r="P17">
-        <v>0.03533017471971957</v>
+        <v>0.03391606058602931</v>
       </c>
       <c r="Q17">
-        <v>0.6165809541666666</v>
+        <v>0.19297339508</v>
       </c>
       <c r="R17">
-        <v>5.549228587499999</v>
+        <v>1.73676055572</v>
       </c>
       <c r="S17">
-        <v>0.0003516586324839663</v>
+        <v>0.0002907016831166913</v>
       </c>
       <c r="T17">
-        <v>0.0003516586324839663</v>
+        <v>0.0002907016831166913</v>
       </c>
     </row>
   </sheetData>
